--- a/pred_ohlcv/54_21/2019-10-27 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LRC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-204969.5865589596</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-151877.5865589596</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-76972.97425895957</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>34934.90584104043</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>67987.24014104043</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>36442.06484104042</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>12183.98224104042</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-104314.8644589596</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-200132.6308589596</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-157873.5138589596</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-171419.9936589596</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-148682.3650589596</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-224660.8182589596</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-201800.2662589596</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-217058.9683589596</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-138255.9333589596</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-152776.3383589596</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-153841.3383589596</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-158689.0770589595</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-218023.1185589595</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-260536.7530589596</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-254514.3721589596</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-399680.7498324059</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-399680.7498324059</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-396768.6220324059</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-380208.7495324059</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-371801.5242324059</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-371801.5242324059</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-363415.3169324059</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-362365.8907324059</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-433228.3086324059</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-272676.488432406</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-284609.347432406</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-337259.347432406</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LRC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-204969.5865589596</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-151877.5865589596</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-76972.97425895957</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>34934.90584104043</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>67987.24014104043</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-30836.50425895958</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>36442.06484104042</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34602.39035895958</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27405.26434104042</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>28137.26434104042</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2665.12104104042</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2705.12104104042</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-109076.8186589596</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-104324.8644589596</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-107855.8644589596</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-130142.3122589596</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-171419.9936589596</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-209315.4113589596</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-218960.0411589596</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-201800.2662589596</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-217058.9683589596</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-151383.0124589596</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-152862.0124589596</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-132422.0337589596</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-139227.7388589596</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-138277.7388589596</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-138255.9333589596</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-174280.9753589596</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-152776.3383589596</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-153841.3383589596</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-158689.0770589595</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-159607.2657589595</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-168713.1055589595</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-218023.1185589595</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-182078.1185589595</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-376833.7495324059</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-374966.1688324059</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-433228.3086324059</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-430083.2963324059</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-323629.650932406</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-272676.488432406</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-274051.470632406</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-274041.470632406</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-280941.470632406</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-266022.811432406</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-286694.902432406</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-284609.347432406</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-337259.347432406</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-380192.351032406</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-365845.369732406</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-358351.4484324061</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-372932.1254324061</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-367651.3938324061</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-370216.6427324061</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-380634.0361324061</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
